--- a/Documantation/Instruction Table.xlsx
+++ b/Documantation/Instruction Table.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\GPC Emulator\Documantation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B99930EA-15F4-46B6-9AB6-4683D36EB76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2326B0-383D-4019-8865-A87C77BDB4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C5A492D-A658-4387-B086-5FF5A886E6D7}"/>
+    <workbookView xWindow="28680" yWindow="3870" windowWidth="19440" windowHeight="11640" xr2:uid="{3C5A492D-A658-4387-B086-5FF5A886E6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>GPC Instruction Table</t>
   </si>
@@ -201,16 +202,25 @@
     <t>JMP to target address</t>
   </si>
   <si>
-    <t>JEQ</t>
-  </si>
-  <si>
-    <t>JNE</t>
-  </si>
-  <si>
-    <t>JMP to target address if a = b</t>
-  </si>
-  <si>
-    <t>JMP to target address if a != b</t>
+    <t>Clock cycles</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>JCM</t>
+  </si>
+  <si>
+    <t>JNC</t>
+  </si>
+  <si>
+    <t>JMP to target address if jump flag = true</t>
+  </si>
+  <si>
+    <t>JMP to target address if jump flag = false</t>
   </si>
 </sst>
 </file>
@@ -281,13 +291,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA92EE22-66BB-4BA6-AFB2-AB424FBEC2C4}" name="Table1" displayName="Table1" ref="A3:E94" totalsRowShown="0">
-  <autoFilter ref="A3:E94" xr:uid="{A5464D78-4900-40BC-8C48-5B63AE01BDAB}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA92EE22-66BB-4BA6-AFB2-AB424FBEC2C4}" name="Table1" displayName="Table1" ref="A3:G94" totalsRowShown="0">
+  <autoFilter ref="A3:G94" xr:uid="{A5464D78-4900-40BC-8C48-5B63AE01BDAB}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{624B41A7-0851-4603-B1A1-77F9716F7E86}" name="OP Code" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{777D892D-3F3C-4FD0-A75F-D975F5DAA3FE}" name="ASM Rep."/>
     <tableColumn id="3" xr3:uid="{E6274B82-48CD-470A-8B26-0FF16543C949}" name="PARM A"/>
     <tableColumn id="4" xr3:uid="{70C03A6C-64D8-44C9-B2CC-B6797BC3041F}" name="PARM B"/>
+    <tableColumn id="7" xr3:uid="{A9C3200A-6487-493B-B275-FC24A5D853E6}" name="Clock cycles"/>
+    <tableColumn id="6" xr3:uid="{2E7D55A6-24D4-4861-BEF1-BCAE92BE38A8}" name="Length"/>
     <tableColumn id="5" xr3:uid="{4FF272DE-F4FB-4FDC-BB62-979285416403}" name="DESCRIPTION"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -591,20 +603,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB12EAE-2643-483D-A42D-80B013CB6882}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="61.85546875" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,8 +625,10 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,21 +642,33 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -651,11 +678,17 @@
       <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -665,11 +698,17 @@
       <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -679,11 +718,17 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -693,22 +738,34 @@
       <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -718,11 +775,17 @@
       <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -735,11 +798,17 @@
       <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -749,44 +818,62 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,7 +965,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Documantation/Instruction Table.xlsx
+++ b/Documantation/Instruction Table.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\GPC Emulator\Documantation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2326B0-383D-4019-8865-A87C77BDB4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E4F9F-61C8-45AD-9A69-37366ACFDFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3870" windowWidth="19440" windowHeight="11640" xr2:uid="{3C5A492D-A658-4387-B086-5FF5A886E6D7}"/>
+    <workbookView xWindow="28680" yWindow="3930" windowWidth="19440" windowHeight="11640" xr2:uid="{3C5A492D-A658-4387-B086-5FF5A886E6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -606,7 +605,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documantation/Instruction Table.xlsx
+++ b/Documantation/Instruction Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\GPC Emulator\Documantation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E4F9F-61C8-45AD-9A69-37366ACFDFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0603650-C51E-4EEB-87CF-E8524912657D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3930" windowWidth="19440" windowHeight="11640" xr2:uid="{3C5A492D-A658-4387-B086-5FF5A886E6D7}"/>
+    <workbookView xWindow="1560" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{3C5A492D-A658-4387-B086-5FF5A886E6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
-  <si>
-    <t>GPC Instruction Table</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>OP Code</t>
   </si>
@@ -189,44 +186,185 @@
     <t>Adds A and B register to gether and stores to {target} memory address</t>
   </si>
   <si>
-    <t>MOV</t>
-  </si>
-  <si>
-    <t>Moves value from source to target memory address</t>
-  </si>
-  <si>
     <t>JMP</t>
   </si>
   <si>
-    <t>JMP to target address</t>
-  </si>
-  <si>
     <t>Clock cycles</t>
   </si>
   <si>
-    <t>CMP</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
-    <t>JCM</t>
-  </si>
-  <si>
-    <t>JNC</t>
-  </si>
-  <si>
-    <t>JMP to target address if jump flag = true</t>
-  </si>
-  <si>
-    <t>JMP to target address if jump flag = false</t>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Loads Immediate value into B-Register</t>
+  </si>
+  <si>
+    <t>Loads Immediate value into A-Register</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>JZE</t>
+  </si>
+  <si>
+    <t>JCA</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>reseverd</t>
+  </si>
+  <si>
+    <t>GPC v1 Instruction Table</t>
+  </si>
+  <si>
+    <t>JEQ</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>JNE</t>
+  </si>
+  <si>
+    <t>JSR</t>
+  </si>
+  <si>
+    <t>RSR</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +375,12 @@
     <font>
       <sz val="48"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,17 +406,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -293,11 +447,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA92EE22-66BB-4BA6-AFB2-AB424FBEC2C4}" name="Table1" displayName="Table1" ref="A3:G94" totalsRowShown="0">
   <autoFilter ref="A3:G94" xr:uid="{A5464D78-4900-40BC-8C48-5B63AE01BDAB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{624B41A7-0851-4603-B1A1-77F9716F7E86}" name="OP Code" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{624B41A7-0851-4603-B1A1-77F9716F7E86}" name="OP Code" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{777D892D-3F3C-4FD0-A75F-D975F5DAA3FE}" name="ASM Rep."/>
     <tableColumn id="3" xr3:uid="{E6274B82-48CD-470A-8B26-0FF16543C949}" name="PARM A"/>
     <tableColumn id="4" xr3:uid="{70C03A6C-64D8-44C9-B2CC-B6797BC3041F}" name="PARM B"/>
-    <tableColumn id="7" xr3:uid="{A9C3200A-6487-493B-B275-FC24A5D853E6}" name="Clock cycles"/>
+    <tableColumn id="7" xr3:uid="{A9C3200A-6487-493B-B275-FC24A5D853E6}" name="Clock cycles" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{2E7D55A6-24D4-4861-BEF1-BCAE92BE38A8}" name="Length"/>
     <tableColumn id="5" xr3:uid="{4FF272DE-F4FB-4FDC-BB62-979285416403}" name="DESCRIPTION"/>
   </tableColumns>
@@ -602,23 +756,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB12EAE-2643-483D-A42D-80B013CB6882}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="4" width="11" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -629,345 +784,789 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
+      <c r="E5" s="3">
+        <v>9</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E58" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Documantation/Instruction Table.xlsx
+++ b/Documantation/Instruction Table.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\GPC Emulator\Documantation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0603650-C51E-4EEB-87CF-E8524912657D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738B15A-A374-4185-B3D7-36EB054DB006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{3C5A492D-A658-4387-B086-5FF5A886E6D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C5A492D-A658-4387-B086-5FF5A886E6D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GPCv1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="130">
   <si>
     <t>OP Code</t>
   </si>
@@ -180,12 +180,6 @@
     <t>ADD</t>
   </si>
   <si>
-    <t>Adds A and B register to gether and stores to A-Register</t>
-  </si>
-  <si>
-    <t>Adds A and B register to gether and stores to {target} memory address</t>
-  </si>
-  <si>
     <t>JMP</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
     <t>3F</t>
   </si>
   <si>
-    <t>reseverd</t>
-  </si>
-  <si>
     <t>GPC v1 Instruction Table</t>
   </si>
   <si>
@@ -358,6 +349,81 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Adds A and B register together and stores to A-Register + sets carry flag if A+B&gt;0xFF</t>
+  </si>
+  <si>
+    <t>Adds A and B register together and stores to {target} memory address</t>
+  </si>
+  <si>
+    <t>Adds A and B register together and stores to A-Register</t>
+  </si>
+  <si>
+    <t>ORs A and B register and stores to A-Register</t>
+  </si>
+  <si>
+    <t>ORs A and B register and stores to {target} memory address</t>
+  </si>
+  <si>
+    <t>ANDs A and B register and stores to A-Register</t>
+  </si>
+  <si>
+    <t>ANDs A and B register and stores to {target} memory address</t>
+  </si>
+  <si>
+    <t>XORs A and B register and stores to A-Register</t>
+  </si>
+  <si>
+    <t>Resevered for future revision of Instruction set do not use on GPCv1 chip</t>
+  </si>
+  <si>
+    <t>Inverts value of A-Register and stores result in A-Register</t>
+  </si>
+  <si>
+    <t>Inverts value of A-Register and stores result at {target} memory address</t>
+  </si>
+  <si>
+    <t>Adds A and B register together and stores to {target} memory address + sets carry flag if A+B&gt;0xFF</t>
+  </si>
+  <si>
+    <t>XORs A and B register and stores to {target} memory address</t>
+  </si>
+  <si>
+    <t>Shifts bits in A-Register 1 right and stores result in A-Register</t>
+  </si>
+  <si>
+    <t>Shifts bits in A-Register 1 left and stores result in A-Register</t>
+  </si>
+  <si>
+    <t>Shifts bits in A-Register 1 right and stores result at {target} memory address</t>
+  </si>
+  <si>
+    <t>Shifts bits in A-Register 1 left and stores result at {target} memory address</t>
+  </si>
+  <si>
+    <t>resevered</t>
+  </si>
+  <si>
+    <t>Jumps to {target} memory address</t>
+  </si>
+  <si>
+    <t>Jumps to {target} memory address if zero flag is set</t>
+  </si>
+  <si>
+    <t>Jumps to {target} memory address if carry flag is set</t>
+  </si>
+  <si>
+    <t>Jumps to {target} memory address if EQ flag is set</t>
+  </si>
+  <si>
+    <t>Jumps to {target} memory address if EQ flag is not set</t>
+  </si>
+  <si>
+    <t>Jumps to {target} memory address and puts current memory address on stack to return to</t>
+  </si>
+  <si>
+    <t>Returns from subroutine to memory address on stack</t>
   </si>
 </sst>
 </file>
@@ -409,14 +475,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,29 +824,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB12EAE-2643-483D-A42D-80B013CB6882}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="61.85546875" customWidth="1"/>
+    <col min="7" max="7" width="83.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -795,11 +861,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>51</v>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -812,7 +878,7 @@
       <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4">
@@ -832,7 +898,7 @@
       <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>9</v>
       </c>
       <c r="F5">
@@ -850,16 +916,16 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -872,7 +938,7 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>9</v>
       </c>
       <c r="F7">
@@ -890,16 +956,16 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,7 +978,7 @@
       <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="F9">
@@ -932,7 +998,7 @@
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>8</v>
       </c>
       <c r="F10">
@@ -947,7 +1013,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -955,7 +1024,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,7 +1035,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,7 +1046,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -979,7 +1057,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -987,7 +1068,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,7 +1079,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1003,7 +1090,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="G18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1011,7 +1101,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>122</v>
+      </c>
+      <c r="G19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,14 +1114,14 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,14 +1134,14 @@
       <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>9</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,13 +1149,16 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="3">
+        <v>55</v>
+      </c>
+      <c r="E22" s="2">
         <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,16 +1166,19 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>9</v>
       </c>
       <c r="F23">
         <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,13 +1186,16 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="3">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2">
         <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,16 +1203,19 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>9</v>
       </c>
       <c r="F25">
         <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1118,13 +1223,16 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="3">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2">
         <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1132,16 +1240,19 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>9</v>
       </c>
       <c r="F27">
         <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1149,13 +1260,16 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="3">
+        <v>53</v>
+      </c>
+      <c r="E28" s="2">
         <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1163,16 +1277,19 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>9</v>
       </c>
       <c r="F29">
         <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1180,13 +1297,16 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="3">
+        <v>54</v>
+      </c>
+      <c r="E30" s="2">
         <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1194,16 +1314,19 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>9</v>
       </c>
       <c r="F31">
         <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1211,350 +1334,431 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="3">
+        <v>68</v>
+      </c>
+      <c r="E32" s="2">
         <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>9</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="3">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
         <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>9</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="B40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>7</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>102</v>
+      <c r="E53" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>102</v>
+      <c r="E54" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>102</v>
+      <c r="E55" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>102</v>
+      <c r="E56" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
